--- a/Restored To Eden/Formulation Templates/Oil Cleanser Worksheet.xlsx
+++ b/Restored To Eden/Formulation Templates/Oil Cleanser Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Desktop\Restored To Eden\Formulation Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\source\repos\ingredient-sorter\Restored To Eden\Formulation Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6CC97-E156-4EDB-92F6-891BA36A1C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A224A6B-9B7F-468F-AD83-091939658D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-15390" windowWidth="16110" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t xml:space="preserve">Customer Name  </t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>100g</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
   </si>
 </sst>
 </file>
@@ -606,11 +609,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA997"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -791,21 +794,12 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
+      <c r="A6" s="1" t="s">
+        <v>26</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -830,21 +824,20 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
-      <c r="D7" s="10">
-        <v>66.5</v>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
       </c>
-      <c r="E7" s="10">
-        <f>B5*D7/100</f>
-        <v>33.25</v>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -873,18 +866,18 @@
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="10">
-        <v>15</v>
+        <v>66.5</v>
       </c>
       <c r="E8" s="10">
         <f>B5*D8/100</f>
-        <v>7.5</v>
+        <v>33.25</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -910,7 +903,9 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
@@ -950,17 +945,17 @@
     <row r="10" spans="1:27" ht="17.399999999999999">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="10">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10">
         <f>B5*D10/100</f>
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -988,17 +983,17 @@
     <row r="11" spans="1:27" ht="17.399999999999999">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="10">
         <f>B5*D11/100</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1026,17 +1021,17 @@
     <row r="12" spans="1:27" ht="17.399999999999999">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="10">
         <f>B5*D12/100</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1063,18 +1058,18 @@
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
       <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>23</v>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="10">
         <f>B5*D13/100</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1101,10 +1096,19 @@
     </row>
     <row r="14" spans="1:27" ht="17.399999999999999">
       <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <f>B5*D14/100</f>
+        <v>1</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1190,8 +1194,8 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1275,16 +1279,10 @@
     </row>
     <row r="20" spans="1:27" ht="17.399999999999999">
       <c r="A20" s="12"/>
-      <c r="B20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1308,11 +1306,18 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="36.75" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+    <row r="21" spans="1:27" ht="17.399999999999999">
+      <c r="A21" s="12"/>
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1336,9 +1341,8 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="17.399999999999999">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:27" ht="36.75" customHeight="1">
+      <c r="A22" s="17"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -29640,9 +29644,38 @@
       <c r="Z997" s="4"/>
       <c r="AA997" s="4"/>
     </row>
+    <row r="998" spans="1:27" ht="17.399999999999999">
+      <c r="A998" s="4"/>
+      <c r="B998" s="4"/>
+      <c r="C998" s="4"/>
+      <c r="D998" s="4"/>
+      <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
+      <c r="K998" s="4"/>
+      <c r="L998" s="4"/>
+      <c r="M998" s="4"/>
+      <c r="N998" s="4"/>
+      <c r="O998" s="4"/>
+      <c r="P998" s="4"/>
+      <c r="Q998" s="4"/>
+      <c r="R998" s="4"/>
+      <c r="S998" s="4"/>
+      <c r="T998" s="4"/>
+      <c r="U998" s="4"/>
+      <c r="V998" s="4"/>
+      <c r="W998" s="4"/>
+      <c r="X998" s="4"/>
+      <c r="Y998" s="4"/>
+      <c r="Z998" s="4"/>
+      <c r="AA998" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
